--- a/R_C14_DADA2/output_petb_2x300/output_petb_Denise/merged_v2/petB_Denise primer_summary_dada2.xlsx
+++ b/R_C14_DADA2/output_petb_2x300/output_petb_Denise/merged_v2/petB_Denise primer_summary_dada2.xlsx
@@ -1,21 +1,541 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/output_petb_2x300/output_petb_Denise/merged_v2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F143242C-CDFD-024C-AD93-87C033D0D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28020" yWindow="460" windowWidth="21280" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="syn paper" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
+  <si>
+    <t>cutadapt</t>
+  </si>
+  <si>
+    <t>filtered</t>
+  </si>
+  <si>
+    <t>merged</t>
+  </si>
+  <si>
+    <t>tabled</t>
+  </si>
+  <si>
+    <t>nonchim</t>
+  </si>
+  <si>
+    <t>file_code</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-128</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-129</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-130</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-131</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-132</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-133</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-134</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-135</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-136</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-137</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-138</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-139</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-140</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-141</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-142</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-143</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-144</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-145</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-146</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-147</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-148</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-149</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-150</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-151</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-152</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-153</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-154</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-155</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-156</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-157</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-158</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-159</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-160</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-161</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-162</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-163</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-164</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-165</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-166</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-167</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-168</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-169</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-170</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-171</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-172</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-173</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-174</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-175</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-176</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-177</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-178</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-179</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-180</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-181</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-182</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-183</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-184</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-185</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-186</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-213</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-214</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-215</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-216</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-217</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-218</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-219</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-220</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-221</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-222</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-223</t>
+  </si>
+  <si>
+    <t>CTD-NpetB-224</t>
+  </si>
+  <si>
+    <t>syn-01-10</t>
+  </si>
+  <si>
+    <t>syn-01-20</t>
+  </si>
+  <si>
+    <t>syn-02-10</t>
+  </si>
+  <si>
+    <t>syn-02-5</t>
+  </si>
+  <si>
+    <t>syn-03-10</t>
+  </si>
+  <si>
+    <t>syn-03-2</t>
+  </si>
+  <si>
+    <t>syn-03-4</t>
+  </si>
+  <si>
+    <t>syn-04</t>
+  </si>
+  <si>
+    <t>syn-06</t>
+  </si>
+  <si>
+    <t>syn-07</t>
+  </si>
+  <si>
+    <t>syn-08</t>
+  </si>
+  <si>
+    <t>syn-11</t>
+  </si>
+  <si>
+    <t>syn-12</t>
+  </si>
+  <si>
+    <t>syn-18</t>
+  </si>
+  <si>
+    <t>syn-19</t>
+  </si>
+  <si>
+    <t>syn-20</t>
+  </si>
+  <si>
+    <t>syn-21</t>
+  </si>
+  <si>
+    <t>syn-22</t>
+  </si>
+  <si>
+    <t>syn-23</t>
+  </si>
+  <si>
+    <t>syn-24</t>
+  </si>
+  <si>
+    <t>syn-25</t>
+  </si>
+  <si>
+    <t>syn-26</t>
+  </si>
+  <si>
+    <t>syn-27</t>
+  </si>
+  <si>
+    <t>syn-28</t>
+  </si>
+  <si>
+    <t>syn-29</t>
+  </si>
+  <si>
+    <t>syn-30</t>
+  </si>
+  <si>
+    <t>syn-31</t>
+  </si>
+  <si>
+    <t>syn-32</t>
+  </si>
+  <si>
+    <t>syn-33</t>
+  </si>
+  <si>
+    <t>syn-34</t>
+  </si>
+  <si>
+    <t>syn-35</t>
+  </si>
+  <si>
+    <t>syn-36</t>
+  </si>
+  <si>
+    <t>syn-37</t>
+  </si>
+  <si>
+    <t>syn-38</t>
+  </si>
+  <si>
+    <t>syn-39</t>
+  </si>
+  <si>
+    <t>syn-40</t>
+  </si>
+  <si>
+    <t>syn-41</t>
+  </si>
+  <si>
+    <t>syn-42</t>
+  </si>
+  <si>
+    <t>syn-43</t>
+  </si>
+  <si>
+    <t>syn-44</t>
+  </si>
+  <si>
+    <t>syn-45</t>
+  </si>
+  <si>
+    <t>syn-46</t>
+  </si>
+  <si>
+    <t>syn-47</t>
+  </si>
+  <si>
+    <t>syn-48</t>
+  </si>
+  <si>
+    <t>syn-49</t>
+  </si>
+  <si>
+    <t>syn-50</t>
+  </si>
+  <si>
+    <t>syn-51</t>
+  </si>
+  <si>
+    <t>syn-52</t>
+  </si>
+  <si>
+    <t>syn-53</t>
+  </si>
+  <si>
+    <t>syn-54</t>
+  </si>
+  <si>
+    <t>syn-55</t>
+  </si>
+  <si>
+    <t>syn-56</t>
+  </si>
+  <si>
+    <t>syn-57</t>
+  </si>
+  <si>
+    <t>syn-58</t>
+  </si>
+  <si>
+    <t>syn-59</t>
+  </si>
+  <si>
+    <t>syn-60</t>
+  </si>
+  <si>
+    <t>syn-61</t>
+  </si>
+  <si>
+    <t>syn-62</t>
+  </si>
+  <si>
+    <t>syn-63</t>
+  </si>
+  <si>
+    <t>syn-64</t>
+  </si>
+  <si>
+    <t>syn-65</t>
+  </si>
+  <si>
+    <t>syn-66</t>
+  </si>
+  <si>
+    <t>syn-67</t>
+  </si>
+  <si>
+    <t>syn-68</t>
+  </si>
+  <si>
+    <t>syn-69</t>
+  </si>
+  <si>
+    <t>syn-70</t>
+  </si>
+  <si>
+    <t>syn-71</t>
+  </si>
+  <si>
+    <t>syn-72</t>
+  </si>
+  <si>
+    <t>syn-73</t>
+  </si>
+  <si>
+    <t>syn-74</t>
+  </si>
+  <si>
+    <t>syn-75</t>
+  </si>
+  <si>
+    <t>syn-76</t>
+  </si>
+  <si>
+    <t>syn-77</t>
+  </si>
+  <si>
+    <t>syn-78</t>
+  </si>
+  <si>
+    <t>syn-79</t>
+  </si>
+  <si>
+    <t>syn-80</t>
+  </si>
+  <si>
+    <t>syn-81</t>
+  </si>
+  <si>
+    <t>syn-82</t>
+  </si>
+  <si>
+    <t>syn-83</t>
+  </si>
+  <si>
+    <t>syn-84</t>
+  </si>
+  <si>
+    <t>syn-85</t>
+  </si>
+  <si>
+    <t>syn-86</t>
+  </si>
+  <si>
+    <t>syn-87</t>
+  </si>
+  <si>
+    <t>syn-88</t>
+  </si>
+  <si>
+    <t>syn-negr1-2</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +583,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +669,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +721,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,46 +914,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F72" sqref="A1:F72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cutadapt</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>filtered</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>merged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tabled</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>nonchim</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>file_code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>37144</v>
       </c>
@@ -405,13 +959,11 @@
       <c r="E2">
         <v>10238</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-128</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>37177</v>
       </c>
@@ -427,13 +979,11 @@
       <c r="E3">
         <v>15774</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-129</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>26524</v>
       </c>
@@ -449,13 +999,11 @@
       <c r="E4">
         <v>6959</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-130</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>36523</v>
       </c>
@@ -471,13 +1019,11 @@
       <c r="E5">
         <v>15265</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-131</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50053</v>
       </c>
@@ -493,13 +1039,11 @@
       <c r="E6">
         <v>22738</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-132</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>41985</v>
       </c>
@@ -515,13 +1059,11 @@
       <c r="E7">
         <v>16462</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-133</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31373</v>
       </c>
@@ -537,13 +1079,11 @@
       <c r="E8">
         <v>9167</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-134</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>33783</v>
       </c>
@@ -559,13 +1099,11 @@
       <c r="E9">
         <v>10148</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-135</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>32530</v>
       </c>
@@ -581,13 +1119,11 @@
       <c r="E10">
         <v>9636</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-136</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>35064</v>
       </c>
@@ -603,13 +1139,11 @@
       <c r="E11">
         <v>11341</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-137</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37856</v>
       </c>
@@ -625,13 +1159,11 @@
       <c r="E12">
         <v>12939</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-138</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>33751</v>
       </c>
@@ -647,13 +1179,11 @@
       <c r="E13">
         <v>12080</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-139</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>35147</v>
       </c>
@@ -669,13 +1199,11 @@
       <c r="E14">
         <v>11507</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-140</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>34939</v>
       </c>
@@ -691,13 +1219,11 @@
       <c r="E15">
         <v>10402</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-141</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>33784</v>
       </c>
@@ -713,13 +1239,11 @@
       <c r="E16">
         <v>10776</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-142</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>39171</v>
       </c>
@@ -735,13 +1259,11 @@
       <c r="E17">
         <v>11389</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-143</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33112</v>
       </c>
@@ -757,13 +1279,11 @@
       <c r="E18">
         <v>9828</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-144</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>33926</v>
       </c>
@@ -779,13 +1299,11 @@
       <c r="E19">
         <v>9852</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-145</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36725</v>
       </c>
@@ -801,13 +1319,11 @@
       <c r="E20">
         <v>11333</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-146</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>25057</v>
       </c>
@@ -823,13 +1339,11 @@
       <c r="E21">
         <v>6578</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-147</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>30432</v>
       </c>
@@ -845,13 +1359,11 @@
       <c r="E22">
         <v>9816</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-148</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>34679</v>
       </c>
@@ -867,13 +1379,11 @@
       <c r="E23">
         <v>11474</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-149</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29559</v>
       </c>
@@ -889,13 +1399,11 @@
       <c r="E24">
         <v>9413</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-150</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34125</v>
       </c>
@@ -911,13 +1419,11 @@
       <c r="E25">
         <v>10550</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-151</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27268</v>
       </c>
@@ -933,13 +1439,11 @@
       <c r="E26">
         <v>6087</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-152</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>34993</v>
       </c>
@@ -955,13 +1459,11 @@
       <c r="E27">
         <v>7333</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-153</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31255</v>
       </c>
@@ -977,13 +1479,11 @@
       <c r="E28">
         <v>6854</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-154</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>33768</v>
       </c>
@@ -999,13 +1499,11 @@
       <c r="E29">
         <v>7388</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-155</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30677</v>
       </c>
@@ -1021,13 +1519,11 @@
       <c r="E30">
         <v>7003</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-156</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33482</v>
       </c>
@@ -1043,13 +1539,11 @@
       <c r="E31">
         <v>7931</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-157</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28949</v>
       </c>
@@ -1065,13 +1559,11 @@
       <c r="E32">
         <v>6526</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-158</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>37984</v>
       </c>
@@ -1087,13 +1579,11 @@
       <c r="E33">
         <v>8171</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-159</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30431</v>
       </c>
@@ -1109,13 +1599,11 @@
       <c r="E34">
         <v>6524</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-160</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35164</v>
       </c>
@@ -1131,13 +1619,11 @@
       <c r="E35">
         <v>7413</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-161</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38023</v>
       </c>
@@ -1153,13 +1639,11 @@
       <c r="E36">
         <v>9110</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-162</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29399</v>
       </c>
@@ -1175,13 +1659,11 @@
       <c r="E37">
         <v>7183</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-163</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36185</v>
       </c>
@@ -1197,13 +1679,11 @@
       <c r="E38">
         <v>8604</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-164</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37128</v>
       </c>
@@ -1219,13 +1699,11 @@
       <c r="E39">
         <v>10057</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-165</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>33297</v>
       </c>
@@ -1241,13 +1719,11 @@
       <c r="E40">
         <v>8026</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-166</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>35441</v>
       </c>
@@ -1263,13 +1739,11 @@
       <c r="E41">
         <v>9242</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-167</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>30308</v>
       </c>
@@ -1285,13 +1759,11 @@
       <c r="E42">
         <v>7813</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-168</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>33645</v>
       </c>
@@ -1307,13 +1779,11 @@
       <c r="E43">
         <v>9442</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-169</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35806</v>
       </c>
@@ -1329,13 +1799,11 @@
       <c r="E44">
         <v>9678</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-170</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36579</v>
       </c>
@@ -1351,13 +1819,11 @@
       <c r="E45">
         <v>9176</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-171</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>28000</v>
       </c>
@@ -1373,13 +1839,11 @@
       <c r="E46">
         <v>7483</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-172</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38821</v>
       </c>
@@ -1395,13 +1859,11 @@
       <c r="E47">
         <v>10031</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-173</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>30794</v>
       </c>
@@ -1417,13 +1879,11 @@
       <c r="E48">
         <v>9752</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-174</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>43206</v>
       </c>
@@ -1439,13 +1899,11 @@
       <c r="E49">
         <v>16288</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-175</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38403</v>
       </c>
@@ -1461,13 +1919,11 @@
       <c r="E50">
         <v>12959</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-176</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>36749</v>
       </c>
@@ -1483,13 +1939,11 @@
       <c r="E51">
         <v>12730</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-177</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>37271</v>
       </c>
@@ -1505,13 +1959,11 @@
       <c r="E52">
         <v>12318</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-178</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>30710</v>
       </c>
@@ -1527,13 +1979,11 @@
       <c r="E53">
         <v>10547</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-179</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>30644</v>
       </c>
@@ -1549,13 +1999,11 @@
       <c r="E54">
         <v>9901</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-180</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>33214</v>
       </c>
@@ -1571,13 +2019,11 @@
       <c r="E55">
         <v>11103</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-181</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>28649</v>
       </c>
@@ -1593,13 +2039,11 @@
       <c r="E56">
         <v>9862</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-182</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>33932</v>
       </c>
@@ -1615,13 +2059,11 @@
       <c r="E57">
         <v>10376</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-183</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>33730</v>
       </c>
@@ -1637,13 +2079,11 @@
       <c r="E58">
         <v>9858</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-184</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>31822</v>
       </c>
@@ -1659,13 +2099,11 @@
       <c r="E59">
         <v>10610</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-185</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>37385</v>
       </c>
@@ -1681,13 +2119,11 @@
       <c r="E60">
         <v>13045</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-186</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>37925</v>
       </c>
@@ -1703,13 +2139,11 @@
       <c r="E61">
         <v>13074</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-213</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>35414</v>
       </c>
@@ -1725,13 +2159,11 @@
       <c r="E62">
         <v>12619</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-214</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>38944</v>
       </c>
@@ -1747,13 +2179,11 @@
       <c r="E63">
         <v>13700</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-215</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>31576</v>
       </c>
@@ -1769,13 +2199,11 @@
       <c r="E64">
         <v>10799</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-216</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>34795</v>
       </c>
@@ -1791,13 +2219,11 @@
       <c r="E65">
         <v>9838</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-217</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40517</v>
       </c>
@@ -1813,13 +2239,11 @@
       <c r="E66">
         <v>14662</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-218</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>41133</v>
       </c>
@@ -1835,13 +2259,11 @@
       <c r="E67">
         <v>14435</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-219</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>41403</v>
       </c>
@@ -1857,13 +2279,11 @@
       <c r="E68">
         <v>14405</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-220</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>34712</v>
       </c>
@@ -1879,13 +2299,11 @@
       <c r="E69">
         <v>11981</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-221</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>31339</v>
       </c>
@@ -1901,13 +2319,11 @@
       <c r="E70">
         <v>9278</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-222</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>32044</v>
       </c>
@@ -1923,13 +2339,11 @@
       <c r="E71">
         <v>9969</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-223</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38258</v>
       </c>
@@ -1945,13 +2359,11 @@
       <c r="E72">
         <v>11875</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>CTD-NpetB-224</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>43677</v>
       </c>
@@ -1967,13 +2379,11 @@
       <c r="E73">
         <v>29131</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>syn-01-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>44694</v>
       </c>
@@ -1989,13 +2399,11 @@
       <c r="E74">
         <v>28434</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>syn-01-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>41333</v>
       </c>
@@ -2011,13 +2419,11 @@
       <c r="E75">
         <v>24280</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>syn-02-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>37564</v>
       </c>
@@ -2033,13 +2439,11 @@
       <c r="E76">
         <v>24021</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>syn-02-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>37195</v>
       </c>
@@ -2055,13 +2459,11 @@
       <c r="E77">
         <v>22943</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>syn-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>53509</v>
       </c>
@@ -2077,13 +2479,11 @@
       <c r="E78">
         <v>26219</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>syn-03-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>44857</v>
       </c>
@@ -2099,13 +2499,11 @@
       <c r="E79">
         <v>24003</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>syn-03-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
+      <c r="F79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>50697</v>
       </c>
@@ -2121,13 +2519,11 @@
       <c r="E80">
         <v>29949</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>syn-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>42506</v>
       </c>
@@ -2143,13 +2539,11 @@
       <c r="E81">
         <v>31322</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>syn-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>44144</v>
       </c>
@@ -2165,13 +2559,11 @@
       <c r="E82">
         <v>27780</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>syn-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38997</v>
       </c>
@@ -2187,13 +2579,11 @@
       <c r="E83">
         <v>27610</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>syn-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>40910</v>
       </c>
@@ -2209,13 +2599,11 @@
       <c r="E84">
         <v>33143</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>syn-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
+      <c r="F84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>45529</v>
       </c>
@@ -2231,13 +2619,11 @@
       <c r="E85">
         <v>27462</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>syn-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>42934</v>
       </c>
@@ -2253,13 +2639,11 @@
       <c r="E86">
         <v>24151</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>syn-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>44463</v>
       </c>
@@ -2275,13 +2659,11 @@
       <c r="E87">
         <v>23854</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>syn-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
+      <c r="F87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>40073</v>
       </c>
@@ -2297,13 +2679,11 @@
       <c r="E88">
         <v>24125</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>syn-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
+      <c r="F88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>39810</v>
       </c>
@@ -2319,13 +2699,11 @@
       <c r="E89">
         <v>21451</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>syn-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>50495</v>
       </c>
@@ -2341,13 +2719,11 @@
       <c r="E90">
         <v>27800</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>syn-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>41449</v>
       </c>
@@ -2363,13 +2739,11 @@
       <c r="E91">
         <v>23181</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>syn-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
+      <c r="F91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>42907</v>
       </c>
@@ -2385,13 +2759,11 @@
       <c r="E92">
         <v>20458</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>syn-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
+      <c r="F92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>43554</v>
       </c>
@@ -2407,13 +2779,11 @@
       <c r="E93">
         <v>23061</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>syn-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
+      <c r="F93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>43188</v>
       </c>
@@ -2429,13 +2799,11 @@
       <c r="E94">
         <v>22130</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>syn-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>41448</v>
       </c>
@@ -2451,13 +2819,11 @@
       <c r="E95">
         <v>21857</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>syn-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>53542</v>
       </c>
@@ -2473,13 +2839,11 @@
       <c r="E96">
         <v>28229</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>syn-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>42205</v>
       </c>
@@ -2495,13 +2859,11 @@
       <c r="E97">
         <v>24348</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>syn-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>50016</v>
       </c>
@@ -2517,13 +2879,11 @@
       <c r="E98">
         <v>29481</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>syn-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
+      <c r="F98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>46294</v>
       </c>
@@ -2539,13 +2899,11 @@
       <c r="E99">
         <v>26876</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>syn-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>41085</v>
       </c>
@@ -2561,13 +2919,11 @@
       <c r="E100">
         <v>24609</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>syn-32</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
+      <c r="F100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>48264</v>
       </c>
@@ -2583,13 +2939,11 @@
       <c r="E101">
         <v>26909</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>syn-33</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
+      <c r="F101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>49125</v>
       </c>
@@ -2605,13 +2959,11 @@
       <c r="E102">
         <v>26489</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>syn-34</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
+      <c r="F102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>46913</v>
       </c>
@@ -2627,13 +2979,11 @@
       <c r="E103">
         <v>23005</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>syn-35</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
+      <c r="F103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>43433</v>
       </c>
@@ -2649,13 +2999,11 @@
       <c r="E104">
         <v>20342</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>syn-36</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
+      <c r="F104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>42937</v>
       </c>
@@ -2671,13 +3019,11 @@
       <c r="E105">
         <v>23417</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>syn-37</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>46534</v>
       </c>
@@ -2693,13 +3039,11 @@
       <c r="E106">
         <v>25113</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>syn-38</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
+      <c r="F106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>48562</v>
       </c>
@@ -2715,13 +3059,11 @@
       <c r="E107">
         <v>24957</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>syn-39</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
+      <c r="F107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>46210</v>
       </c>
@@ -2737,13 +3079,11 @@
       <c r="E108">
         <v>24596</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>syn-40</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
+      <c r="F108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>49183</v>
       </c>
@@ -2759,13 +3099,11 @@
       <c r="E109">
         <v>29234</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>syn-41</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
+      <c r="F109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>45829</v>
       </c>
@@ -2781,13 +3119,11 @@
       <c r="E110">
         <v>25649</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>syn-42</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
+      <c r="F110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>43962</v>
       </c>
@@ -2803,13 +3139,11 @@
       <c r="E111">
         <v>20180</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>syn-43</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
+      <c r="F111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>41632</v>
       </c>
@@ -2825,13 +3159,11 @@
       <c r="E112">
         <v>27651</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>syn-44</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
+      <c r="F112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>34355</v>
       </c>
@@ -2847,13 +3179,11 @@
       <c r="E113">
         <v>22600</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>syn-45</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
+      <c r="F113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>42709</v>
       </c>
@@ -2869,13 +3199,11 @@
       <c r="E114">
         <v>25987</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>syn-46</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
+      <c r="F114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>37324</v>
       </c>
@@ -2891,13 +3219,11 @@
       <c r="E115">
         <v>19040</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>syn-47</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
+      <c r="F115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>48092</v>
       </c>
@@ -2913,13 +3239,11 @@
       <c r="E116">
         <v>22244</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>syn-48</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
+      <c r="F116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>48542</v>
       </c>
@@ -2935,13 +3259,11 @@
       <c r="E117">
         <v>23759</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>syn-49</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
+      <c r="F117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>50400</v>
       </c>
@@ -2957,13 +3279,11 @@
       <c r="E118">
         <v>25366</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>syn-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
+      <c r="F118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>55507</v>
       </c>
@@ -2979,13 +3299,11 @@
       <c r="E119">
         <v>21213</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>syn-51</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
+      <c r="F119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>48136</v>
       </c>
@@ -3001,13 +3319,11 @@
       <c r="E120">
         <v>20056</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>syn-52</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
+      <c r="F120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>44001</v>
       </c>
@@ -3023,13 +3339,11 @@
       <c r="E121">
         <v>22287</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>syn-53</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
+      <c r="F121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>44840</v>
       </c>
@@ -3045,13 +3359,11 @@
       <c r="E122">
         <v>23404</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>syn-54</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
+      <c r="F122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>47438</v>
       </c>
@@ -3067,13 +3379,11 @@
       <c r="E123">
         <v>29691</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>syn-55</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
+      <c r="F123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>55895</v>
       </c>
@@ -3089,13 +3399,11 @@
       <c r="E124">
         <v>14659</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>syn-56</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
+      <c r="F124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>47126</v>
       </c>
@@ -3111,13 +3419,11 @@
       <c r="E125">
         <v>19727</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>syn-57</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
+      <c r="F125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>40519</v>
       </c>
@@ -3133,13 +3439,11 @@
       <c r="E126">
         <v>17155</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>syn-58</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
+      <c r="F126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>51731</v>
       </c>
@@ -3155,13 +3459,11 @@
       <c r="E127">
         <v>26480</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>syn-59</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
+      <c r="F127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>39746</v>
       </c>
@@ -3177,13 +3479,11 @@
       <c r="E128">
         <v>27183</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>syn-60</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
+      <c r="F128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>43569</v>
       </c>
@@ -3199,13 +3499,11 @@
       <c r="E129">
         <v>20419</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>syn-61</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
+      <c r="F129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>42287</v>
       </c>
@@ -3221,13 +3519,11 @@
       <c r="E130">
         <v>19138</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>syn-62</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
+      <c r="F130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>44531</v>
       </c>
@@ -3243,13 +3539,11 @@
       <c r="E131">
         <v>19519</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>syn-63</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
+      <c r="F131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>48427</v>
       </c>
@@ -3265,13 +3559,11 @@
       <c r="E132">
         <v>29244</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>syn-64</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
+      <c r="F132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>48403</v>
       </c>
@@ -3287,13 +3579,11 @@
       <c r="E133">
         <v>22588</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>syn-65</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
+      <c r="F133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>44038</v>
       </c>
@@ -3309,13 +3599,11 @@
       <c r="E134">
         <v>21047</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>syn-66</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
+      <c r="F134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>47292</v>
       </c>
@@ -3331,13 +3619,11 @@
       <c r="E135">
         <v>20827</v>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>syn-67</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
+      <c r="F135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>37827</v>
       </c>
@@ -3353,13 +3639,11 @@
       <c r="E136">
         <v>20440</v>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>syn-68</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
+      <c r="F136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>47461</v>
       </c>
@@ -3375,13 +3659,11 @@
       <c r="E137">
         <v>21806</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>syn-69</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
+      <c r="F137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>43843</v>
       </c>
@@ -3397,13 +3679,11 @@
       <c r="E138">
         <v>19599</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>syn-70</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
+      <c r="F138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>46025</v>
       </c>
@@ -3419,13 +3699,11 @@
       <c r="E139">
         <v>20184</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>syn-71</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
+      <c r="F139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>44782</v>
       </c>
@@ -3441,13 +3719,11 @@
       <c r="E140">
         <v>19429</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>syn-72</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
+      <c r="F140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>47053</v>
       </c>
@@ -3463,13 +3739,11 @@
       <c r="E141">
         <v>23182</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>syn-73</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
+      <c r="F141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>46901</v>
       </c>
@@ -3485,13 +3759,11 @@
       <c r="E142">
         <v>20365</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>syn-74</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
+      <c r="F142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>47808</v>
       </c>
@@ -3507,13 +3779,11 @@
       <c r="E143">
         <v>23220</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>syn-75</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
+      <c r="F143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>43109</v>
       </c>
@@ -3529,13 +3799,11 @@
       <c r="E144">
         <v>20343</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>syn-76</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
+      <c r="F144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>44308</v>
       </c>
@@ -3551,13 +3819,11 @@
       <c r="E145">
         <v>20765</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>syn-77</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
+      <c r="F145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>43066</v>
       </c>
@@ -3573,13 +3839,11 @@
       <c r="E146">
         <v>19252</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>syn-78</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
+      <c r="F146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>51061</v>
       </c>
@@ -3595,13 +3859,11 @@
       <c r="E147">
         <v>25041</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>syn-79</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
+      <c r="F147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>44510</v>
       </c>
@@ -3617,13 +3879,11 @@
       <c r="E148">
         <v>21957</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>syn-80</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
+      <c r="F148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>48126</v>
       </c>
@@ -3639,13 +3899,11 @@
       <c r="E149">
         <v>22954</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>syn-81</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
+      <c r="F149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>45557</v>
       </c>
@@ -3661,13 +3919,11 @@
       <c r="E150">
         <v>22693</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>syn-82</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
+      <c r="F150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>46689</v>
       </c>
@@ -3683,13 +3939,11 @@
       <c r="E151">
         <v>23515</v>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>syn-83</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
+      <c r="F151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>46457</v>
       </c>
@@ -3705,13 +3959,11 @@
       <c r="E152">
         <v>23300</v>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>syn-84</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
+      <c r="F152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>47448</v>
       </c>
@@ -3727,13 +3979,11 @@
       <c r="E153">
         <v>23076</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>syn-85</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
+      <c r="F153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>47786</v>
       </c>
@@ -3749,13 +3999,11 @@
       <c r="E154">
         <v>24001</v>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>syn-86</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
+      <c r="F154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>52528</v>
       </c>
@@ -3771,13 +4019,11 @@
       <c r="E155">
         <v>24617</v>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>syn-87</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
+      <c r="F155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>50133</v>
       </c>
@@ -3793,13 +4039,11 @@
       <c r="E156">
         <v>24749</v>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>syn-88</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
+      <c r="F156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>191</v>
       </c>
@@ -3815,10 +4059,1493 @@
       <c r="E157">
         <v>85</v>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>syn-negr1-2</t>
-        </is>
+      <c r="F157" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE0E10-EB43-644A-86EF-0822C0A893F4}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>57191</v>
+      </c>
+      <c r="C2">
+        <v>37144</v>
+      </c>
+      <c r="D2">
+        <v>34722</v>
+      </c>
+      <c r="E2">
+        <v>32997</v>
+      </c>
+      <c r="F2">
+        <v>10238</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>42228</v>
+      </c>
+      <c r="C3">
+        <v>37177</v>
+      </c>
+      <c r="D3">
+        <v>36282</v>
+      </c>
+      <c r="E3">
+        <v>35687</v>
+      </c>
+      <c r="F3">
+        <v>15774</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>38631</v>
+      </c>
+      <c r="C4">
+        <v>26524</v>
+      </c>
+      <c r="D4">
+        <v>23660</v>
+      </c>
+      <c r="E4">
+        <v>22262</v>
+      </c>
+      <c r="F4">
+        <v>6959</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>44157</v>
+      </c>
+      <c r="C5">
+        <v>36523</v>
+      </c>
+      <c r="D5">
+        <v>35653</v>
+      </c>
+      <c r="E5">
+        <v>34991</v>
+      </c>
+      <c r="F5">
+        <v>15265</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>56958</v>
+      </c>
+      <c r="C6">
+        <v>50053</v>
+      </c>
+      <c r="D6">
+        <v>48234</v>
+      </c>
+      <c r="E6">
+        <v>47305</v>
+      </c>
+      <c r="F6">
+        <v>22738</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>49947</v>
+      </c>
+      <c r="C7">
+        <v>41985</v>
+      </c>
+      <c r="D7">
+        <v>40951</v>
+      </c>
+      <c r="E7">
+        <v>40222</v>
+      </c>
+      <c r="F7">
+        <v>16462</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>41140</v>
+      </c>
+      <c r="C8">
+        <v>31373</v>
+      </c>
+      <c r="D8">
+        <v>28584</v>
+      </c>
+      <c r="E8">
+        <v>27252</v>
+      </c>
+      <c r="F8">
+        <v>9167</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>45813</v>
+      </c>
+      <c r="C9">
+        <v>33783</v>
+      </c>
+      <c r="D9">
+        <v>31824</v>
+      </c>
+      <c r="E9">
+        <v>30618</v>
+      </c>
+      <c r="F9">
+        <v>10148</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>42036</v>
+      </c>
+      <c r="C10">
+        <v>32530</v>
+      </c>
+      <c r="D10">
+        <v>29614</v>
+      </c>
+      <c r="E10">
+        <v>28147</v>
+      </c>
+      <c r="F10">
+        <v>9636</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>45887</v>
+      </c>
+      <c r="C11">
+        <v>35064</v>
+      </c>
+      <c r="D11">
+        <v>33603</v>
+      </c>
+      <c r="E11">
+        <v>32302</v>
+      </c>
+      <c r="F11">
+        <v>11341</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>46551</v>
+      </c>
+      <c r="C12">
+        <v>37856</v>
+      </c>
+      <c r="D12">
+        <v>36227</v>
+      </c>
+      <c r="E12">
+        <v>34942</v>
+      </c>
+      <c r="F12">
+        <v>12939</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>42398</v>
+      </c>
+      <c r="C13">
+        <v>33751</v>
+      </c>
+      <c r="D13">
+        <v>32630</v>
+      </c>
+      <c r="E13">
+        <v>31306</v>
+      </c>
+      <c r="F13">
+        <v>12080</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>49951</v>
+      </c>
+      <c r="C14">
+        <v>35147</v>
+      </c>
+      <c r="D14">
+        <v>33215</v>
+      </c>
+      <c r="E14">
+        <v>32047</v>
+      </c>
+      <c r="F14">
+        <v>11507</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>46279</v>
+      </c>
+      <c r="C15">
+        <v>34939</v>
+      </c>
+      <c r="D15">
+        <v>31110</v>
+      </c>
+      <c r="E15">
+        <v>29855</v>
+      </c>
+      <c r="F15">
+        <v>10402</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>45941</v>
+      </c>
+      <c r="C16">
+        <v>33784</v>
+      </c>
+      <c r="D16">
+        <v>32256</v>
+      </c>
+      <c r="E16">
+        <v>31089</v>
+      </c>
+      <c r="F16">
+        <v>10776</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>50452</v>
+      </c>
+      <c r="C17">
+        <v>39171</v>
+      </c>
+      <c r="D17">
+        <v>35503</v>
+      </c>
+      <c r="E17">
+        <v>34208</v>
+      </c>
+      <c r="F17">
+        <v>11389</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>44913</v>
+      </c>
+      <c r="C18">
+        <v>33112</v>
+      </c>
+      <c r="D18">
+        <v>31091</v>
+      </c>
+      <c r="E18">
+        <v>29776</v>
+      </c>
+      <c r="F18">
+        <v>9828</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>52251</v>
+      </c>
+      <c r="C19">
+        <v>33926</v>
+      </c>
+      <c r="D19">
+        <v>31625</v>
+      </c>
+      <c r="E19">
+        <v>30321</v>
+      </c>
+      <c r="F19">
+        <v>9852</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>52207</v>
+      </c>
+      <c r="C20">
+        <v>36725</v>
+      </c>
+      <c r="D20">
+        <v>34266</v>
+      </c>
+      <c r="E20">
+        <v>32645</v>
+      </c>
+      <c r="F20">
+        <v>11333</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>39057</v>
+      </c>
+      <c r="C21">
+        <v>25057</v>
+      </c>
+      <c r="D21">
+        <v>22796</v>
+      </c>
+      <c r="E21">
+        <v>21480</v>
+      </c>
+      <c r="F21">
+        <v>6578</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>41482</v>
+      </c>
+      <c r="C22">
+        <v>30432</v>
+      </c>
+      <c r="D22">
+        <v>28413</v>
+      </c>
+      <c r="E22">
+        <v>27298</v>
+      </c>
+      <c r="F22">
+        <v>9816</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>46586</v>
+      </c>
+      <c r="C23">
+        <v>34679</v>
+      </c>
+      <c r="D23">
+        <v>32084</v>
+      </c>
+      <c r="E23">
+        <v>30849</v>
+      </c>
+      <c r="F23">
+        <v>11474</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>40765</v>
+      </c>
+      <c r="C24">
+        <v>29559</v>
+      </c>
+      <c r="D24">
+        <v>27002</v>
+      </c>
+      <c r="E24">
+        <v>25775</v>
+      </c>
+      <c r="F24">
+        <v>9413</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>48583</v>
+      </c>
+      <c r="C25">
+        <v>34125</v>
+      </c>
+      <c r="D25">
+        <v>31914</v>
+      </c>
+      <c r="E25">
+        <v>30508</v>
+      </c>
+      <c r="F25">
+        <v>10550</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>38670</v>
+      </c>
+      <c r="C26">
+        <v>27268</v>
+      </c>
+      <c r="D26">
+        <v>25205</v>
+      </c>
+      <c r="E26">
+        <v>23892</v>
+      </c>
+      <c r="F26">
+        <v>6087</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>47732</v>
+      </c>
+      <c r="C27">
+        <v>34993</v>
+      </c>
+      <c r="D27">
+        <v>31444</v>
+      </c>
+      <c r="E27">
+        <v>29737</v>
+      </c>
+      <c r="F27">
+        <v>7333</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>47000</v>
+      </c>
+      <c r="C28">
+        <v>31255</v>
+      </c>
+      <c r="D28">
+        <v>28784</v>
+      </c>
+      <c r="E28">
+        <v>27010</v>
+      </c>
+      <c r="F28">
+        <v>6854</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>47524</v>
+      </c>
+      <c r="C29">
+        <v>33768</v>
+      </c>
+      <c r="D29">
+        <v>30547</v>
+      </c>
+      <c r="E29">
+        <v>29166</v>
+      </c>
+      <c r="F29">
+        <v>7388</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>43598</v>
+      </c>
+      <c r="C30">
+        <v>30677</v>
+      </c>
+      <c r="D30">
+        <v>28050</v>
+      </c>
+      <c r="E30">
+        <v>26776</v>
+      </c>
+      <c r="F30">
+        <v>7003</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>52680</v>
+      </c>
+      <c r="C31">
+        <v>33482</v>
+      </c>
+      <c r="D31">
+        <v>31328</v>
+      </c>
+      <c r="E31">
+        <v>29991</v>
+      </c>
+      <c r="F31">
+        <v>7931</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>39022</v>
+      </c>
+      <c r="C32">
+        <v>28949</v>
+      </c>
+      <c r="D32">
+        <v>26731</v>
+      </c>
+      <c r="E32">
+        <v>25191</v>
+      </c>
+      <c r="F32">
+        <v>6526</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>50864</v>
+      </c>
+      <c r="C33">
+        <v>37984</v>
+      </c>
+      <c r="D33">
+        <v>33965</v>
+      </c>
+      <c r="E33">
+        <v>32186</v>
+      </c>
+      <c r="F33">
+        <v>8171</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>44033</v>
+      </c>
+      <c r="C34">
+        <v>30431</v>
+      </c>
+      <c r="D34">
+        <v>28323</v>
+      </c>
+      <c r="E34">
+        <v>26743</v>
+      </c>
+      <c r="F34">
+        <v>6524</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>49307</v>
+      </c>
+      <c r="C35">
+        <v>35164</v>
+      </c>
+      <c r="D35">
+        <v>31942</v>
+      </c>
+      <c r="E35">
+        <v>30264</v>
+      </c>
+      <c r="F35">
+        <v>7413</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>52899</v>
+      </c>
+      <c r="C36">
+        <v>38023</v>
+      </c>
+      <c r="D36">
+        <v>35809</v>
+      </c>
+      <c r="E36">
+        <v>34073</v>
+      </c>
+      <c r="F36">
+        <v>9110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>39469</v>
+      </c>
+      <c r="C37">
+        <v>29399</v>
+      </c>
+      <c r="D37">
+        <v>27118</v>
+      </c>
+      <c r="E37">
+        <v>25916</v>
+      </c>
+      <c r="F37">
+        <v>7183</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>48124</v>
+      </c>
+      <c r="C38">
+        <v>36185</v>
+      </c>
+      <c r="D38">
+        <v>32477</v>
+      </c>
+      <c r="E38">
+        <v>30441</v>
+      </c>
+      <c r="F38">
+        <v>8604</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>51252</v>
+      </c>
+      <c r="C39">
+        <v>37128</v>
+      </c>
+      <c r="D39">
+        <v>35318</v>
+      </c>
+      <c r="E39">
+        <v>33482</v>
+      </c>
+      <c r="F39">
+        <v>10057</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>45494</v>
+      </c>
+      <c r="C40">
+        <v>33297</v>
+      </c>
+      <c r="D40">
+        <v>30815</v>
+      </c>
+      <c r="E40">
+        <v>29096</v>
+      </c>
+      <c r="F40">
+        <v>8026</v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>47426</v>
+      </c>
+      <c r="C41">
+        <v>35441</v>
+      </c>
+      <c r="D41">
+        <v>33338</v>
+      </c>
+      <c r="E41">
+        <v>31563</v>
+      </c>
+      <c r="F41">
+        <v>9242</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>39874</v>
+      </c>
+      <c r="C42">
+        <v>30308</v>
+      </c>
+      <c r="D42">
+        <v>27820</v>
+      </c>
+      <c r="E42">
+        <v>26257</v>
+      </c>
+      <c r="F42">
+        <v>7813</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>44147</v>
+      </c>
+      <c r="C43">
+        <v>33645</v>
+      </c>
+      <c r="D43">
+        <v>31994</v>
+      </c>
+      <c r="E43">
+        <v>30260</v>
+      </c>
+      <c r="F43">
+        <v>9442</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>48585</v>
+      </c>
+      <c r="C44">
+        <v>35806</v>
+      </c>
+      <c r="D44">
+        <v>33949</v>
+      </c>
+      <c r="E44">
+        <v>32357</v>
+      </c>
+      <c r="F44">
+        <v>9678</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>49438</v>
+      </c>
+      <c r="C45">
+        <v>36579</v>
+      </c>
+      <c r="D45">
+        <v>33867</v>
+      </c>
+      <c r="E45">
+        <v>31950</v>
+      </c>
+      <c r="F45">
+        <v>9176</v>
+      </c>
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>38851</v>
+      </c>
+      <c r="C46">
+        <v>28000</v>
+      </c>
+      <c r="D46">
+        <v>25538</v>
+      </c>
+      <c r="E46">
+        <v>24042</v>
+      </c>
+      <c r="F46">
+        <v>7483</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>53400</v>
+      </c>
+      <c r="C47">
+        <v>38821</v>
+      </c>
+      <c r="D47">
+        <v>35132</v>
+      </c>
+      <c r="E47">
+        <v>33297</v>
+      </c>
+      <c r="F47">
+        <v>10031</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>42315</v>
+      </c>
+      <c r="C48">
+        <v>30794</v>
+      </c>
+      <c r="D48">
+        <v>29287</v>
+      </c>
+      <c r="E48">
+        <v>27817</v>
+      </c>
+      <c r="F48">
+        <v>9752</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>49661</v>
+      </c>
+      <c r="C49">
+        <v>43206</v>
+      </c>
+      <c r="D49">
+        <v>42120</v>
+      </c>
+      <c r="E49">
+        <v>41196</v>
+      </c>
+      <c r="F49">
+        <v>16288</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>46278</v>
+      </c>
+      <c r="C50">
+        <v>38403</v>
+      </c>
+      <c r="D50">
+        <v>35598</v>
+      </c>
+      <c r="E50">
+        <v>34594</v>
+      </c>
+      <c r="F50">
+        <v>12959</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>51000</v>
+      </c>
+      <c r="C51">
+        <v>36749</v>
+      </c>
+      <c r="D51">
+        <v>34820</v>
+      </c>
+      <c r="E51">
+        <v>33555</v>
+      </c>
+      <c r="F51">
+        <v>12730</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>48101</v>
+      </c>
+      <c r="C52">
+        <v>37271</v>
+      </c>
+      <c r="D52">
+        <v>34735</v>
+      </c>
+      <c r="E52">
+        <v>33578</v>
+      </c>
+      <c r="F52">
+        <v>12318</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>40790</v>
+      </c>
+      <c r="C53">
+        <v>30710</v>
+      </c>
+      <c r="D53">
+        <v>28553</v>
+      </c>
+      <c r="E53">
+        <v>27366</v>
+      </c>
+      <c r="F53">
+        <v>10547</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>40883</v>
+      </c>
+      <c r="C54">
+        <v>30644</v>
+      </c>
+      <c r="D54">
+        <v>27859</v>
+      </c>
+      <c r="E54">
+        <v>26529</v>
+      </c>
+      <c r="F54">
+        <v>9901</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>42571</v>
+      </c>
+      <c r="C55">
+        <v>33214</v>
+      </c>
+      <c r="D55">
+        <v>30996</v>
+      </c>
+      <c r="E55">
+        <v>29590</v>
+      </c>
+      <c r="F55">
+        <v>11103</v>
+      </c>
+      <c r="G55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>37680</v>
+      </c>
+      <c r="C56">
+        <v>28649</v>
+      </c>
+      <c r="D56">
+        <v>26782</v>
+      </c>
+      <c r="E56">
+        <v>25735</v>
+      </c>
+      <c r="F56">
+        <v>9862</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>48494</v>
+      </c>
+      <c r="C57">
+        <v>33932</v>
+      </c>
+      <c r="D57">
+        <v>31129</v>
+      </c>
+      <c r="E57">
+        <v>29685</v>
+      </c>
+      <c r="F57">
+        <v>10376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>49237</v>
+      </c>
+      <c r="C58">
+        <v>33730</v>
+      </c>
+      <c r="D58">
+        <v>30946</v>
+      </c>
+      <c r="E58">
+        <v>29543</v>
+      </c>
+      <c r="F58">
+        <v>9858</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>48537</v>
+      </c>
+      <c r="C59">
+        <v>31822</v>
+      </c>
+      <c r="D59">
+        <v>30015</v>
+      </c>
+      <c r="E59">
+        <v>28607</v>
+      </c>
+      <c r="F59">
+        <v>10610</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>48843</v>
+      </c>
+      <c r="C60">
+        <v>37385</v>
+      </c>
+      <c r="D60">
+        <v>34751</v>
+      </c>
+      <c r="E60">
+        <v>33590</v>
+      </c>
+      <c r="F60">
+        <v>13045</v>
+      </c>
+      <c r="G60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>49319</v>
+      </c>
+      <c r="C61">
+        <v>37925</v>
+      </c>
+      <c r="D61">
+        <v>36139</v>
+      </c>
+      <c r="E61">
+        <v>34887</v>
+      </c>
+      <c r="F61">
+        <v>13074</v>
+      </c>
+      <c r="G61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>45614</v>
+      </c>
+      <c r="C62">
+        <v>35414</v>
+      </c>
+      <c r="D62">
+        <v>33691</v>
+      </c>
+      <c r="E62">
+        <v>32462</v>
+      </c>
+      <c r="F62">
+        <v>12619</v>
+      </c>
+      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>41083</v>
+      </c>
+      <c r="C63">
+        <v>31576</v>
+      </c>
+      <c r="D63">
+        <v>29325</v>
+      </c>
+      <c r="E63">
+        <v>28124</v>
+      </c>
+      <c r="F63">
+        <v>10799</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>46563</v>
+      </c>
+      <c r="C64">
+        <v>34795</v>
+      </c>
+      <c r="D64">
+        <v>32840</v>
+      </c>
+      <c r="E64">
+        <v>31425</v>
+      </c>
+      <c r="F64">
+        <v>9838</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>47972</v>
+      </c>
+      <c r="C65">
+        <v>40517</v>
+      </c>
+      <c r="D65">
+        <v>39257</v>
+      </c>
+      <c r="E65">
+        <v>37898</v>
+      </c>
+      <c r="F65">
+        <v>14662</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>54378</v>
+      </c>
+      <c r="C66">
+        <v>41133</v>
+      </c>
+      <c r="D66">
+        <v>39321</v>
+      </c>
+      <c r="E66">
+        <v>37959</v>
+      </c>
+      <c r="F66">
+        <v>14435</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>51293</v>
+      </c>
+      <c r="C67">
+        <v>41403</v>
+      </c>
+      <c r="D67">
+        <v>39642</v>
+      </c>
+      <c r="E67">
+        <v>38529</v>
+      </c>
+      <c r="F67">
+        <v>14405</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>44796</v>
+      </c>
+      <c r="C68">
+        <v>34712</v>
+      </c>
+      <c r="D68">
+        <v>32812</v>
+      </c>
+      <c r="E68">
+        <v>31419</v>
+      </c>
+      <c r="F68">
+        <v>11981</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>43781</v>
+      </c>
+      <c r="C69">
+        <v>31339</v>
+      </c>
+      <c r="D69">
+        <v>29258</v>
+      </c>
+      <c r="E69">
+        <v>27963</v>
+      </c>
+      <c r="F69">
+        <v>9278</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>44390</v>
+      </c>
+      <c r="C70">
+        <v>32044</v>
+      </c>
+      <c r="D70">
+        <v>30115</v>
+      </c>
+      <c r="E70">
+        <v>28512</v>
+      </c>
+      <c r="F70">
+        <v>9969</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>52409</v>
+      </c>
+      <c r="C71">
+        <v>38258</v>
+      </c>
+      <c r="D71">
+        <v>36437</v>
+      </c>
+      <c r="E71">
+        <v>35061</v>
+      </c>
+      <c r="F71">
+        <v>11875</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(B2:B71)</f>
+        <v>46382.585714285713</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(C2:C71)</f>
+        <v>34523.528571428571</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:F72" si="0">AVERAGE(D2:D71)</f>
+        <v>32274.014285714286</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="0"/>
+        <v>30902.799999999999</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>10500.342857142858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73">
+        <f>_xlfn.STDEV.P(B2:B71)</f>
+        <v>4613.5330325741752</v>
+      </c>
+      <c r="C73">
+        <f>_xlfn.STDEV.P(C2:C71)</f>
+        <v>4174.358091701657</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:F73" si="1">_xlfn.STDEV.P(D2:D71)</f>
+        <v>4326.8616950819387</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>4402.1330920361779</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>2843.680672678152</v>
       </c>
     </row>
   </sheetData>
